--- a/patient_data/patient_43.xlsx
+++ b/patient_data/patient_43.xlsx
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
